--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,142 +61,142 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
   </si>
   <si>
     <t>community</t>
@@ -847,10 +847,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9655172413793104</v>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.9615384615384616</v>
@@ -1129,7 +1129,7 @@
         <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.9545454545454546</v>
@@ -1179,7 +1179,7 @@
         <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.9444444444444444</v>
@@ -1229,7 +1229,7 @@
         <v>424</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.9354838709677419</v>
@@ -1254,32 +1254,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.09774436090225563</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>220</v>
-      </c>
-      <c r="E10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>120</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.9333333333333333</v>
@@ -1305,7 +1281,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.9166666666666666</v>
@@ -1331,7 +1307,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.9111111111111111</v>
@@ -1357,7 +1333,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.905982905982906</v>
@@ -1383,7 +1359,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.8846153846153846</v>
@@ -1409,7 +1385,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.8818897637795275</v>
@@ -1435,7 +1411,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0.8807339449541285</v>
@@ -1461,7 +1437,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1487,7 +1463,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.8636363636363636</v>
@@ -1513,7 +1489,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.84</v>
@@ -1539,7 +1515,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.8375</v>
@@ -1565,7 +1541,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.8297872340425532</v>
@@ -1591,7 +1567,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.8235294117647058</v>
@@ -1617,7 +1593,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.8148148148148148</v>
@@ -1643,7 +1619,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
         <v>0.8085106382978723</v>
@@ -1669,7 +1645,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
         <v>0.8076923076923077</v>
@@ -1695,7 +1671,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0.8070175438596491</v>
@@ -1721,7 +1697,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>0.7936507936507936</v>
@@ -1747,7 +1723,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>0.7647058823529411</v>
@@ -1773,85 +1749,85 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.7577092511013216</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.75</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.7474747474747475</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L31">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="N31">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>0.7111111111111111</v>
@@ -1877,7 +1853,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>0.7083333333333334</v>
@@ -1903,7 +1879,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>0.7073170731707317</v>
@@ -1929,7 +1905,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>0.6966292134831461</v>
@@ -1955,7 +1931,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>0.6956521739130435</v>
@@ -1981,7 +1957,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.6857142857142857</v>
@@ -2007,7 +1983,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>0.6818181818181818</v>
@@ -2033,7 +2009,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K39">
         <v>0.6818181818181818</v>
@@ -2059,7 +2035,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>0.68</v>
@@ -2085,7 +2061,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K41">
         <v>0.65625</v>
@@ -2111,7 +2087,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42">
         <v>0.6538461538461539</v>
@@ -2137,7 +2113,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>0.6473684210526316</v>
@@ -2163,7 +2139,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44">
         <v>0.6363636363636364</v>
@@ -2189,28 +2165,28 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>0.6330275229357798</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="L45">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M45">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2218,13 +2194,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.6215277777777778</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L46">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>0.96</v>
@@ -2236,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2244,25 +2220,25 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.6153846153846154</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="N47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="10:17">
